--- a/src/test/resources/3D709000.xlsx
+++ b/src/test/resources/3D709000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADTADE\IdeaProjects\trial\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7B4E34-DA57-4F44-8571-BC660375B96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3FAD4-00E1-44F6-94F6-7BDA2BB3B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B1BC793-82F0-45B4-8CEF-9B023979668E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tc_name</t>
   </si>
@@ -50,19 +50,10 @@
     <t>We've got 10000+ results for womens kurti</t>
   </si>
   <si>
-    <t>Verify that user is able to enter the pincode after search result is displayed for kurti</t>
-  </si>
-  <si>
-    <t>Verify that user is able to enter invalid pincode after search result is displayed</t>
-  </si>
-  <si>
     <t>SearchValue</t>
   </si>
   <si>
     <t>TypeValue</t>
-  </si>
-  <si>
-    <t>"111111"</t>
   </si>
 </sst>
 </file>
@@ -429,7 +420,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -463,26 +454,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>444101</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -506,6 +481,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0fd11688-81b7-4267-8cb1-f7feca01a338" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD272A598023B4FA3D00AD976A5B145" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce97bcd386256cac4bb4287dfcea5775">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0fd11688-81b7-4267-8cb1-f7feca01a338" xmlns:ns4="98bfebc5-788a-4de0-b12e-967cac5089e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460afa06e8e426c26869c5787f839a75" ns3:_="" ns4:_="">
     <xsd:import namespace="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
@@ -682,14 +665,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0fd11688-81b7-4267-8cb1-f7feca01a338" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -700,6 +675,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9229B9-3832-448F-913C-E236F848BCD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98bfebc5-788a-4de0-b12e-967cac5089e1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14AB5009-0B41-443D-8714-5D1C443A91EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -718,23 +710,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9229B9-3832-448F-913C-E236F848BCD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98bfebc5-788a-4de0-b12e-967cac5089e1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08EC8CA-6D70-4E74-87EE-6ADF93FEF388}">
   <ds:schemaRefs>

--- a/src/test/resources/3D709000.xlsx
+++ b/src/test/resources/3D709000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADTADE\IdeaProjects\trial\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C3FAD4-00E1-44F6-94F6-7BDA2BB3B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E517E-A5AA-44C5-B77D-74131EA1E695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5B1BC793-82F0-45B4-8CEF-9B023979668E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tc_name</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>TypeValue</t>
+  </si>
+  <si>
+    <t>hjklsdf</t>
+  </si>
+  <si>
+    <t>Oops! Looks like something went wrong, please try again in sometime.</t>
+  </si>
+  <si>
+    <t>Verify that user is not able to search for invalid result.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,10 +463,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
@@ -481,14 +495,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0fd11688-81b7-4267-8cb1-f7feca01a338" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD272A598023B4FA3D00AD976A5B145" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ce97bcd386256cac4bb4287dfcea5775">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0fd11688-81b7-4267-8cb1-f7feca01a338" xmlns:ns4="98bfebc5-788a-4de0-b12e-967cac5089e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="460afa06e8e426c26869c5787f839a75" ns3:_="" ns4:_="">
     <xsd:import namespace="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
@@ -665,6 +671,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0fd11688-81b7-4267-8cb1-f7feca01a338" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -675,23 +689,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9229B9-3832-448F-913C-E236F848BCD4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98bfebc5-788a-4de0-b12e-967cac5089e1"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14AB5009-0B41-443D-8714-5D1C443A91EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -710,6 +707,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF9229B9-3832-448F-913C-E236F848BCD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0fd11688-81b7-4267-8cb1-f7feca01a338"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98bfebc5-788a-4de0-b12e-967cac5089e1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E08EC8CA-6D70-4E74-87EE-6ADF93FEF388}">
   <ds:schemaRefs>
